--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -534,52 +534,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H2">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I2">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J2">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.89589196829802</v>
+        <v>9.667057999999999</v>
       </c>
       <c r="N2">
-        <v>8.89589196829802</v>
+        <v>29.001174</v>
       </c>
       <c r="O2">
-        <v>0.1477905969310961</v>
+        <v>0.1512832311431697</v>
       </c>
       <c r="P2">
-        <v>0.1477905969310961</v>
+        <v>0.1588228070066391</v>
       </c>
       <c r="Q2">
-        <v>2.102243882000116</v>
+        <v>2.758275880318666</v>
       </c>
       <c r="R2">
-        <v>2.102243882000116</v>
+        <v>24.824482922868</v>
       </c>
       <c r="S2">
-        <v>0.008804811139646384</v>
+        <v>0.008008369223889963</v>
       </c>
       <c r="T2">
-        <v>0.008804811139646384</v>
+        <v>0.008407486210286497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H3">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I3">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J3">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2005235485396</v>
+        <v>20.60908733333333</v>
       </c>
       <c r="N3">
-        <v>19.2005235485396</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O3">
-        <v>0.3189850828607963</v>
+        <v>0.3225189424433408</v>
       </c>
       <c r="P3">
-        <v>0.3189850828607963</v>
+        <v>0.3385924756140875</v>
       </c>
       <c r="Q3">
-        <v>4.537395834499897</v>
+        <v>5.880335931253777</v>
       </c>
       <c r="R3">
-        <v>4.537395834499897</v>
+        <v>52.92302338128399</v>
       </c>
       <c r="S3">
-        <v>0.01900393847291387</v>
+        <v>0.0170729482261022</v>
       </c>
       <c r="T3">
-        <v>0.01900393847291387</v>
+        <v>0.01792382103858176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H4">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I4">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J4">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.528870067042</v>
+        <v>11.51251933333333</v>
       </c>
       <c r="N4">
-        <v>10.528870067042</v>
+        <v>34.537558</v>
       </c>
       <c r="O4">
-        <v>0.1749198391531049</v>
+        <v>0.1801635123472805</v>
       </c>
       <c r="P4">
-        <v>0.1749198391531049</v>
+        <v>0.1891424088112641</v>
       </c>
       <c r="Q4">
-        <v>2.488143152107991</v>
+        <v>3.284836441328444</v>
       </c>
       <c r="R4">
-        <v>2.488143152107991</v>
+        <v>29.563527971956</v>
       </c>
       <c r="S4">
-        <v>0.01042106994830303</v>
+        <v>0.009537183444901733</v>
       </c>
       <c r="T4">
-        <v>0.01042106994830303</v>
+        <v>0.01001249268812256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H5">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I5">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J5">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5546221982653</v>
+        <v>13.01136333333333</v>
       </c>
       <c r="N5">
-        <v>12.5546221982653</v>
+        <v>39.03409</v>
       </c>
       <c r="O5">
-        <v>0.2085743751765691</v>
+        <v>0.2036194555411202</v>
       </c>
       <c r="P5">
-        <v>0.2085743751765691</v>
+        <v>0.2137673372377884</v>
       </c>
       <c r="Q5">
-        <v>2.966861310949082</v>
+        <v>3.712497602931111</v>
       </c>
       <c r="R5">
-        <v>2.966861310949082</v>
+        <v>33.41247842638</v>
       </c>
       <c r="S5">
-        <v>0.01242608136196679</v>
+        <v>0.01077885347119227</v>
       </c>
       <c r="T5">
-        <v>0.01242608136196679</v>
+        <v>0.01131604442654915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.236316255805692</v>
+        <v>0.2853273333333333</v>
       </c>
       <c r="H6">
-        <v>0.236316255805692</v>
+        <v>0.855982</v>
       </c>
       <c r="I6">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635817</v>
       </c>
       <c r="J6">
-        <v>0.0595762607532563</v>
+        <v>0.05293626506635819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.01263594542063</v>
+        <v>9.100365500000001</v>
       </c>
       <c r="N6">
-        <v>9.01263594542063</v>
+        <v>18.200731</v>
       </c>
       <c r="O6">
-        <v>0.1497301058784335</v>
+        <v>0.1424148585250888</v>
       </c>
       <c r="P6">
-        <v>0.1497301058784335</v>
+        <v>0.09967497133022109</v>
       </c>
       <c r="Q6">
-        <v>2.129832381561596</v>
+        <v>2.596583020473667</v>
       </c>
       <c r="R6">
-        <v>2.129832381561596</v>
+        <v>15.579498122842</v>
       </c>
       <c r="S6">
-        <v>0.008920359830426229</v>
+        <v>0.007538910700271997</v>
       </c>
       <c r="T6">
-        <v>0.008920359830426229</v>
+        <v>0.005276420702818236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H7">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I7">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J7">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.89589196829802</v>
+        <v>9.667057999999999</v>
       </c>
       <c r="N7">
-        <v>8.89589196829802</v>
+        <v>29.001174</v>
       </c>
       <c r="O7">
-        <v>0.1477905969310961</v>
+        <v>0.1512832311431697</v>
       </c>
       <c r="P7">
-        <v>0.1477905969310961</v>
+        <v>0.1588228070066391</v>
       </c>
       <c r="Q7">
-        <v>10.7492901150309</v>
+        <v>17.331845945866</v>
       </c>
       <c r="R7">
-        <v>10.7492901150309</v>
+        <v>155.986613512794</v>
       </c>
       <c r="S7">
-        <v>0.04502116531696943</v>
+        <v>0.05032122517419817</v>
       </c>
       <c r="T7">
-        <v>0.04502116531696943</v>
+        <v>0.0528291085124681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H8">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I8">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J8">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.2005235485396</v>
+        <v>20.60908733333333</v>
       </c>
       <c r="N8">
-        <v>19.2005235485396</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O8">
-        <v>0.3189850828607963</v>
+        <v>0.3225189424433408</v>
       </c>
       <c r="P8">
-        <v>0.3189850828607963</v>
+        <v>0.3385924756140875</v>
       </c>
       <c r="Q8">
-        <v>23.20082108902026</v>
+        <v>36.94955867092466</v>
       </c>
       <c r="R8">
-        <v>23.20082108902026</v>
+        <v>332.5460280383219</v>
       </c>
       <c r="S8">
-        <v>0.09717181232997263</v>
+        <v>0.1072792285238572</v>
       </c>
       <c r="T8">
-        <v>0.09717181232997263</v>
+        <v>0.1126257555375791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H9">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I9">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J9">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.528870067042</v>
+        <v>11.51251933333333</v>
       </c>
       <c r="N9">
-        <v>10.528870067042</v>
+        <v>34.537558</v>
       </c>
       <c r="O9">
-        <v>0.1749198391531049</v>
+        <v>0.1801635123472805</v>
       </c>
       <c r="P9">
-        <v>0.1749198391531049</v>
+        <v>0.1891424088112641</v>
       </c>
       <c r="Q9">
-        <v>12.72248801327931</v>
+        <v>20.64053112478866</v>
       </c>
       <c r="R9">
-        <v>12.72248801327931</v>
+        <v>185.764780123098</v>
       </c>
       <c r="S9">
-        <v>0.05328549420096879</v>
+        <v>0.05992765096629982</v>
       </c>
       <c r="T9">
-        <v>0.05328549420096879</v>
+        <v>0.06291429441227656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H10">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I10">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J10">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5546221982653</v>
+        <v>13.01136333333333</v>
       </c>
       <c r="N10">
-        <v>12.5546221982653</v>
+        <v>39.03409</v>
       </c>
       <c r="O10">
-        <v>0.2085743751765691</v>
+        <v>0.2036194555411202</v>
       </c>
       <c r="P10">
-        <v>0.2085743751765691</v>
+        <v>0.2137673372377884</v>
       </c>
       <c r="Q10">
-        <v>15.17029172281868</v>
+        <v>23.32777405897667</v>
       </c>
       <c r="R10">
-        <v>15.17029172281868</v>
+        <v>209.94996653079</v>
       </c>
       <c r="S10">
-        <v>0.06353761078646912</v>
+        <v>0.06772978336531883</v>
       </c>
       <c r="T10">
-        <v>0.06353761078646912</v>
+        <v>0.07110526547288898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.20834314910048</v>
+        <v>1.792877</v>
       </c>
       <c r="H11">
-        <v>1.20834314910048</v>
+        <v>5.378630999999999</v>
       </c>
       <c r="I11">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="J11">
-        <v>0.3046280768319752</v>
+        <v>0.3326292332200106</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.01263594542063</v>
+        <v>9.100365500000001</v>
       </c>
       <c r="N11">
-        <v>9.01263594542063</v>
+        <v>18.200731</v>
       </c>
       <c r="O11">
-        <v>0.1497301058784335</v>
+        <v>0.1424148585250888</v>
       </c>
       <c r="P11">
-        <v>0.1497301058784335</v>
+        <v>0.09967497133022109</v>
       </c>
       <c r="Q11">
-        <v>10.89035689998575</v>
+        <v>16.3158359965435</v>
       </c>
       <c r="R11">
-        <v>10.89035689998575</v>
+        <v>97.895015979261</v>
       </c>
       <c r="S11">
-        <v>0.04561199419759523</v>
+        <v>0.04737134519033656</v>
       </c>
       <c r="T11">
-        <v>0.04561199419759523</v>
+        <v>0.03315480928479798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H12">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I12">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J12">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.89589196829802</v>
+        <v>9.667057999999999</v>
       </c>
       <c r="N12">
-        <v>8.89589196829802</v>
+        <v>29.001174</v>
       </c>
       <c r="O12">
-        <v>0.1477905969310961</v>
+        <v>0.1512832311431697</v>
       </c>
       <c r="P12">
-        <v>0.1477905969310961</v>
+        <v>0.1588228070066391</v>
       </c>
       <c r="Q12">
-        <v>22.43506934833272</v>
+        <v>32.01547868909599</v>
       </c>
       <c r="R12">
-        <v>22.43506934833272</v>
+        <v>288.139308201864</v>
       </c>
       <c r="S12">
-        <v>0.09396462047448034</v>
+        <v>0.09295363674508157</v>
       </c>
       <c r="T12">
-        <v>0.09396462047448034</v>
+        <v>0.09758621228388449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H13">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I13">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J13">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.2005235485396</v>
+        <v>20.60908733333333</v>
       </c>
       <c r="N13">
-        <v>19.2005235485396</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O13">
-        <v>0.3189850828607963</v>
+        <v>0.3225189424433408</v>
       </c>
       <c r="P13">
-        <v>0.3189850828607963</v>
+        <v>0.3385924756140875</v>
       </c>
       <c r="Q13">
-        <v>48.42292137436964</v>
+        <v>68.25342273958132</v>
       </c>
       <c r="R13">
-        <v>48.42292137436964</v>
+        <v>614.2808046562319</v>
       </c>
       <c r="S13">
-        <v>0.2028093320579098</v>
+        <v>0.1981667656933814</v>
       </c>
       <c r="T13">
-        <v>0.2028093320579098</v>
+        <v>0.2080428990379267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H14">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I14">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J14">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.528870067042</v>
+        <v>11.51251933333333</v>
       </c>
       <c r="N14">
-        <v>10.528870067042</v>
+        <v>34.537558</v>
       </c>
       <c r="O14">
-        <v>0.1749198391531049</v>
+        <v>0.1801635123472805</v>
       </c>
       <c r="P14">
-        <v>0.1749198391531049</v>
+        <v>0.1891424088112641</v>
       </c>
       <c r="Q14">
-        <v>26.5533721582351</v>
+        <v>38.12729967836533</v>
       </c>
       <c r="R14">
-        <v>26.5533721582351</v>
+        <v>343.1456971052879</v>
       </c>
       <c r="S14">
-        <v>0.1112132750038331</v>
+        <v>0.1106986779360789</v>
       </c>
       <c r="T14">
-        <v>0.1112132750038331</v>
+        <v>0.116215621710865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H15">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I15">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J15">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.5546221982653</v>
+        <v>13.01136333333333</v>
       </c>
       <c r="N15">
-        <v>12.5546221982653</v>
+        <v>39.03409</v>
       </c>
       <c r="O15">
-        <v>0.2085743751765691</v>
+        <v>0.2036194555411202</v>
       </c>
       <c r="P15">
-        <v>0.2085743751765691</v>
+        <v>0.2137673372377884</v>
       </c>
       <c r="Q15">
-        <v>31.66223473306049</v>
+        <v>43.09118922369333</v>
       </c>
       <c r="R15">
-        <v>31.66223473306049</v>
+        <v>387.8207030132399</v>
       </c>
       <c r="S15">
-        <v>0.1326106830281332</v>
+        <v>0.125110818704609</v>
       </c>
       <c r="T15">
-        <v>0.1326106830281332</v>
+        <v>0.1313460273383503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5219583857677</v>
+        <v>3.311812</v>
       </c>
       <c r="H16">
-        <v>2.5219583857677</v>
+        <v>9.935435999999999</v>
       </c>
       <c r="I16">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="J16">
-        <v>0.6357956624147686</v>
+        <v>0.6144345017136311</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.01263594542063</v>
+        <v>9.100365500000001</v>
       </c>
       <c r="N16">
-        <v>9.01263594542063</v>
+        <v>18.200731</v>
       </c>
       <c r="O16">
-        <v>0.1497301058784335</v>
+        <v>0.1424148585250888</v>
       </c>
       <c r="P16">
-        <v>0.1497301058784335</v>
+        <v>0.09967497133022109</v>
       </c>
       <c r="Q16">
-        <v>22.72949280042496</v>
+        <v>30.138699667286</v>
       </c>
       <c r="R16">
-        <v>22.72949280042496</v>
+        <v>180.832198003716</v>
       </c>
       <c r="S16">
-        <v>0.09519775185041209</v>
+        <v>0.08750460263448018</v>
       </c>
       <c r="T16">
-        <v>0.09519775185041209</v>
+        <v>0.06124374134260486</v>
       </c>
     </row>
   </sheetData>
